--- a/report/source/Supporting/Requirements Master Workbook_v1.0.xlsx
+++ b/report/source/Supporting/Requirements Master Workbook_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/979ded2d4b39a8ae/Documents/GitHub/RABET-V-Pilot/report/source/Supporting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{D10B4814-D58C-4CB4-8104-E4818B89BD6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DCD15226-54C2-4BC6-975F-93A18762CEB8}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="8_{D10B4814-D58C-4CB4-8104-E4818B89BD6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5784BB86-C81E-42A4-860A-92FC67549969}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{395A1401-83D8-BE42-8202-6ADEA40700EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{395A1401-83D8-BE42-8202-6ADEA40700EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="12" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="752">
   <si>
     <t>Before deploying any new asset or instances, change all default passwords to have strong values consistent with policy.</t>
   </si>
@@ -1563,9 +1563,6 @@
     <t>Place a Logout Button on Every Page</t>
   </si>
   <si>
-    <t>omponents</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CIS Security Best Practices for Non-Voting Election Technology A1.5.3</t>
   </si>
   <si>
@@ -1626,9 +1623,6 @@
     <t>Provider supplied hardware</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1899,15 +1893,9 @@
     <t>5.3.1</t>
   </si>
   <si>
-    <t>Configuration Audit/Load Test</t>
-  </si>
-  <si>
     <t>6.1.1</t>
   </si>
   <si>
-    <t>HTTP Header Inspection</t>
-  </si>
-  <si>
     <t>6.1.2</t>
   </si>
   <si>
@@ -2010,9 +1998,6 @@
     <t>8.1.1</t>
   </si>
   <si>
-    <t>Static code analysis</t>
-  </si>
-  <si>
     <t>8.1.2</t>
   </si>
   <si>
@@ -2022,9 +2007,6 @@
     <t>8.1.3</t>
   </si>
   <si>
-    <t>Protocol inspection</t>
-  </si>
-  <si>
     <t>8.2.1</t>
   </si>
   <si>
@@ -2064,9 +2046,6 @@
     <t>9.2.2</t>
   </si>
   <si>
-    <t>Deploy Operating System Patchs</t>
-  </si>
-  <si>
     <t>9.2.3</t>
   </si>
   <si>
@@ -2085,9 +2064,6 @@
     <t>9.3.1</t>
   </si>
   <si>
-    <t>Review reports?</t>
-  </si>
-  <si>
     <t>9.3.2</t>
   </si>
   <si>
@@ -2115,9 +2091,6 @@
     <t>10.1.2</t>
   </si>
   <si>
-    <t>HTTP Inspection</t>
-  </si>
-  <si>
     <t>10.1.3</t>
   </si>
   <si>
@@ -2235,18 +2208,9 @@
     <t>Review of a provider-supplied statement on how something works.</t>
   </si>
   <si>
-    <t>Artifacts here can include internal penetration testing performed by a 3rd party tool.</t>
-  </si>
-  <si>
-    <t>Artifacts here can include internal unit testing of password reset functionality.</t>
-  </si>
-  <si>
     <t>Configuration Audit, Functional Test</t>
   </si>
   <si>
-    <t>Artifacts here can include internal unit testing results.</t>
-  </si>
-  <si>
     <t>Configuration Audit, Data Audit</t>
   </si>
   <si>
@@ -2259,10 +2223,82 @@
     <t>Code Analysis, Configuration Audit</t>
   </si>
   <si>
-    <t>Artifacts can be results of internal automated testing</t>
-  </si>
-  <si>
-    <t>Results from CSAT or Azure Security Center, etc can be used</t>
+    <t>Acceptable Artifacts</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Internal automated testing results</t>
+  </si>
+  <si>
+    <t>Penetration testing results, conducting by vendor or 3rd party</t>
+  </si>
+  <si>
+    <t>Internal automated testing</t>
+  </si>
+  <si>
+    <t>Penetration testing, conducted internally or by 3rd party</t>
+  </si>
+  <si>
+    <t>Penetration testing, conducting internally or by 3rd party</t>
+  </si>
+  <si>
+    <t>3rd party configuration assessment results</t>
+  </si>
+  <si>
+    <t>3rd party configuration assessment results (e.g. CSAT, Azure Security Center)</t>
+  </si>
+  <si>
+    <t>Results from a 3rd party assessment tool</t>
+  </si>
+  <si>
+    <t>Internal automated results</t>
+  </si>
+  <si>
+    <t>Samples of log data from relevant systems</t>
+  </si>
+  <si>
+    <t>Functional Testing, Data Audit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results from vendor's source code analysis tools </t>
+  </si>
+  <si>
+    <t>Configuration Audit, Functional Testing</t>
+  </si>
+  <si>
+    <t>Results from 3rd party evaluation of dependencies</t>
+  </si>
+  <si>
+    <t>Will use network security analyer to evaluate missing security patches</t>
+  </si>
+  <si>
+    <t>Deploy Operating System Patches</t>
+  </si>
+  <si>
+    <t>Log of system backups being made</t>
+  </si>
+  <si>
+    <t>Log of signature updates</t>
+  </si>
+  <si>
+    <t>Use security analyer to determine patch levels</t>
+  </si>
+  <si>
+    <t>Results from 3rd party evaluation of software</t>
+  </si>
+  <si>
+    <t>Results from 3rd party evaluation of operating system</t>
+  </si>
+  <si>
+    <t>Logs from configuration monitoring system</t>
+  </si>
+  <si>
+    <t>Review results of arch review or network diagram</t>
+  </si>
+  <si>
+    <t>Penetration testing, conducted internally or by a 3rd party</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2400,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2394,7 +2430,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2732,136 +2767,136 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.140625" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.140625" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.15">
+      <c r="A2" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.15">
+      <c r="A4" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.15">
+      <c r="A6" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.15">
+      <c r="A7" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.15">
-      <c r="A2" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="29.15">
+      <c r="A10" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.15">
-      <c r="A4" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="11" spans="1:2" ht="29.15">
+      <c r="A11" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.15">
+      <c r="A12" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+    <row r="16" spans="1:2" ht="29.15">
+      <c r="A16" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.15">
-      <c r="A6" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="17" spans="1:2" ht="29.15">
+      <c r="A17" s="16" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="29.15">
-      <c r="A7" s="17" t="s">
+      <c r="B17" s="17" t="s">
         <v>705</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29.15">
-      <c r="A10" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29.15">
-      <c r="A11" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29.15">
-      <c r="A12" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29.15">
-      <c r="A16" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29.15">
-      <c r="A17" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -2872,14 +2907,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F2B2E-D884-054C-89DD-B1EDAD39E2D7}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:K2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -2894,9 +2929,9 @@
     <col min="8" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -2916,33 +2951,36 @@
       <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
+        <v>714</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="79.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="79.3">
       <c r="A3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2962,13 +3000,25 @@
       <c r="G3" s="2" t="s">
         <v>448</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J3" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="111">
+        <v>529</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="L3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="111">
       <c r="A4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2988,13 +3038,22 @@
       <c r="G4" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="63.45">
+        <v>661</v>
+      </c>
+      <c r="L4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="63.45">
       <c r="A5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -3014,13 +3073,22 @@
       <c r="G5" s="2" t="s">
         <v>454</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="63.45">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -3040,13 +3108,19 @@
       <c r="G6" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="95.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="95.15">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -3058,18 +3132,24 @@
         <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>542</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="72.900000000000006">
       <c r="A8" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -3089,19 +3169,28 @@
       <c r="G8" s="2" t="s">
         <v>462</v>
       </c>
+      <c r="H8" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="63.45">
+        <v>652</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="72.900000000000006">
       <c r="A9" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>673</v>
+        <v>743</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>126</v>
@@ -3112,13 +3201,25 @@
       <c r="G9" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="H9" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="63.45">
+        <v>652</v>
+      </c>
+      <c r="K9" t="s">
+        <v>746</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="63.45">
       <c r="A10" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -3138,13 +3239,25 @@
       <c r="G10" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="H10" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="79.3">
+        <v>652</v>
+      </c>
+      <c r="K10" t="s">
+        <v>746</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="79.3">
       <c r="A11" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -3164,13 +3277,19 @@
       <c r="G11" s="2" t="s">
         <v>469</v>
       </c>
+      <c r="H11" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="63.45">
       <c r="A12" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -3190,13 +3309,19 @@
       <c r="G12" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="H12" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="63.45">
       <c r="A13" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -3216,13 +3341,19 @@
       <c r="G13" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="H13" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="79.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="79.3">
       <c r="A14" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -3242,13 +3373,22 @@
       <c r="G14" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="H14" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="79.3">
+        <v>542</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="79.3">
       <c r="A15" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -3265,13 +3405,22 @@
       <c r="G15" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="H15" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="79.3">
+        <v>542</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="79.3">
       <c r="A16" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -3291,13 +3440,22 @@
       <c r="G16" s="2" t="s">
         <v>485</v>
       </c>
+      <c r="H16" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="95.15">
+        <v>652</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="95.15">
       <c r="A17" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -3317,13 +3475,19 @@
       <c r="G17" s="2" t="s">
         <v>488</v>
       </c>
+      <c r="H17" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="63.45">
       <c r="A18" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -3343,13 +3507,19 @@
       <c r="G18" s="2" t="s">
         <v>492</v>
       </c>
+      <c r="H18" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="63.45">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="63.45">
       <c r="A19" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -3369,13 +3539,19 @@
       <c r="G19" s="2" t="s">
         <v>495</v>
       </c>
+      <c r="H19" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="J19" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="47.6">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="47.6">
       <c r="A20" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -3386,13 +3562,22 @@
       <c r="D20" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="H20" t="s">
+        <v>719</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="J20" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="63.45">
+        <v>706</v>
+      </c>
+      <c r="K20" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="63.45">
       <c r="A21" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -3412,8 +3597,14 @@
       <c r="G21" s="2" t="s">
         <v>499</v>
       </c>
+      <c r="H21" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="J21" s="7" t="s">
-        <v>544</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -3450,11 +3641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E199A56-44C3-174E-A6AF-69D697FFF6C0}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -3462,17 +3653,18 @@
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.35546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.640625" customWidth="1"/>
+    <col min="12" max="12" width="15.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -3480,48 +3672,48 @@
       <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>527</v>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="5" t="s">
+        <v>714</v>
+      </c>
       <c r="L1" s="5" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="I2" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="63.45">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -3529,25 +3721,31 @@
       <c r="C3" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>555</v>
+      <c r="D3" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>491</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>502</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>502</v>
+        <v>719</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="95.15">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -3555,22 +3753,31 @@
       <c r="C4" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>169</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>504</v>
+        <v>706</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="63.45">
       <c r="A5" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -3578,208 +3785,262 @@
       <c r="C5" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>506</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="63.45">
+        <v>706</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="79.3">
       <c r="A6" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>509</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="63.45">
+        <v>706</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="79.3">
       <c r="A7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" t="s">
-        <v>353</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="63.45">
+        <v>719</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="79.3">
       <c r="A8" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>508</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" t="s">
-        <v>509</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="63.45">
+        <v>706</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="79.3">
       <c r="A9" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G9" t="s">
-        <v>353</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>517</v>
+        <v>706</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="79.3">
       <c r="A10" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" t="s">
-        <v>353</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>519</v>
+        <v>719</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="95.15">
       <c r="A11" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>696</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
-        <v>169</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>521</v>
+        <v>719</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4">
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4">
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4">
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4">
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="1"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="lock-endpoint-device-sessions-after-inactivity" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/User_Session_Management_Requirements.md#lock-endpoint-device-sessions-after-inactivity" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/User_Session_Management_Requirements.md - lock-endpoint-device-sessions-after-inactivity" xr:uid="{CC2580ED-215D-DB4A-9898-C35FCF1AF061}"/>
@@ -3799,13 +4060,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8369BD-4210-2F42-9977-811439A1FCAF}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -3820,11 +4081,12 @@
     <col min="8" max="9" width="33.35546875" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.28515625" customWidth="1"/>
+    <col min="12" max="12" width="49.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -3833,10 +4095,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>21</v>
@@ -3844,39 +4106,42 @@
       <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
+        <v>714</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="63.45">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="63.45">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -3888,21 +4153,24 @@
         <v>151</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="63.45">
+    </row>
+    <row r="4" spans="1:12" ht="174.9">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -3920,21 +4188,21 @@
         <v>153</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="95.15">
+        <v>531</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="95.15">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -3952,19 +4220,22 @@
         <v>155</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="95.15">
+      <c r="L5" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="95.15">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -3982,18 +4253,21 @@
         <v>159</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="63.45">
+    </row>
+    <row r="7" spans="1:12" ht="63.45">
       <c r="A7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4011,18 +4285,21 @@
         <v>162</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="174.45">
+    </row>
+    <row r="8" spans="1:12" ht="174.45">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -4040,18 +4317,21 @@
         <v>164</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="126.9">
+        <v>536</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="126.9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -4069,18 +4349,21 @@
         <v>166</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="174.45">
+        <v>531</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="174.45">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -4098,27 +4381,28 @@
         <v>168</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="79.3">
+        <v>531</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="79.3">
       <c r="A11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -4130,21 +4414,22 @@
         <v>170</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="95.15">
+        <v>536</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="95.15">
       <c r="A12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -4162,18 +4447,18 @@
         <v>173</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="79.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="79.3">
       <c r="A13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -4194,18 +4479,18 @@
         <v>176</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="47.6">
+      <c r="A14" t="s">
         <v>544</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="47.6">
-      <c r="A14" t="s">
-        <v>546</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -4220,21 +4505,22 @@
         <v>149</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="79.3">
+        <v>531</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="79.3">
       <c r="A15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -4252,18 +4538,21 @@
         <v>176</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="63.45">
+    </row>
+    <row r="16" spans="1:12" ht="63.45">
       <c r="A16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -4284,18 +4573,21 @@
         <v>182</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="79.3">
+    </row>
+    <row r="17" spans="1:12" ht="79.3">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -4316,18 +4608,21 @@
         <v>185</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="126.9">
+    </row>
+    <row r="18" spans="1:12" ht="126.9">
       <c r="A18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -4348,18 +4643,18 @@
         <v>188</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="63.45">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="63.45">
       <c r="A19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -4380,18 +4675,21 @@
         <v>191</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="111">
+        <v>721</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="111">
       <c r="A20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -4412,13 +4710,16 @@
         <v>194</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4452,13 +4753,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A0982-A44C-4444-A785-1F28E87737FA}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:K2"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -4474,11 +4775,12 @@
     <col min="9" max="9" width="16.640625" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
     <col min="11" max="11" width="32.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -4498,33 +4800,36 @@
       <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
+        <v>714</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="142.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="142.75">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4542,18 +4847,21 @@
         <v>196</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="126.9">
+        <v>553</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="126.9">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -4571,18 +4879,21 @@
         <v>198</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="126.9">
+        <v>542</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="126.9">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -4597,21 +4908,24 @@
         <v>149</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="111">
+        <v>542</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="111">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -4629,18 +4943,21 @@
         <v>201</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="79.3">
+        <v>536</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="79.3">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4655,18 +4972,21 @@
         <v>149</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="79.3">
+        <v>536</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="79.3">
       <c r="A8" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -4684,18 +5004,21 @@
         <v>204</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="63.45">
+        <v>536</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="63.45">
       <c r="A9" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -4713,18 +5036,18 @@
         <v>206</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="79.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="79.3">
       <c r="A10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -4742,18 +5065,21 @@
         <v>208</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="63.45">
+        <v>536</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="63.45">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -4774,32 +5100,32 @@
         <v>211</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
     </row>
@@ -4841,13 +5167,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B347DFA-4B76-4E4C-9DEC-18FC51A28B03}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:K2"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -4861,11 +5187,12 @@
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="20.92578125" customWidth="1"/>
     <col min="11" max="11" width="36.2109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -4885,33 +5212,36 @@
       <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
+        <v>714</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="142.75">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="142.75">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -4932,18 +5262,18 @@
         <v>215</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="95.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="95.15">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -4964,18 +5294,21 @@
         <v>218</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="111">
+        <v>536</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="111">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -4996,18 +5329,18 @@
         <v>221</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="126.9">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="126.9">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5028,18 +5361,18 @@
         <v>224</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="63.45">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -5057,18 +5390,18 @@
         <v>226</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="95.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="95.15">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5089,18 +5422,21 @@
         <v>229</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="95.15">
+        <v>536</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="95.15">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -5121,18 +5457,18 @@
         <v>233</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="158.6">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="158.6">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -5153,18 +5489,18 @@
         <v>236</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="95.15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="95.15">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -5185,18 +5521,18 @@
         <v>239</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="63.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="63.45">
       <c r="A12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -5217,18 +5553,18 @@
         <v>242</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="63.45">
       <c r="A13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -5249,18 +5585,18 @@
         <v>245</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="79.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="79.3">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -5281,18 +5617,18 @@
         <v>248</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="63.45">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="63.45">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -5313,18 +5649,18 @@
         <v>251</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="63.45">
       <c r="A16" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -5342,18 +5678,18 @@
         <v>253</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="63.45">
       <c r="A17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -5374,18 +5710,18 @@
         <v>256</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="63.45">
       <c r="A18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -5406,18 +5742,21 @@
         <v>260</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="63.45">
+        <v>536</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="63.45">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -5438,21 +5777,21 @@
         <v>263</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="63.45">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="63.45">
       <c r="A20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -5470,18 +5809,18 @@
         <v>265</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="63.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="63.45">
       <c r="A21" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -5502,18 +5841,18 @@
         <v>268</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="63.45">
       <c r="A22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -5534,18 +5873,18 @@
         <v>271</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="63.45">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5566,18 +5905,18 @@
         <v>274</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="142.75">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="142.75">
       <c r="A24" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -5598,13 +5937,16 @@
         <v>215</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -5642,13 +5984,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704434DA-8037-E548-A214-FA1A2733925F}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:J1"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -5661,12 +6003,13 @@
     <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="58" customWidth="1"/>
+    <col min="11" max="11" width="43.140625" customWidth="1"/>
+    <col min="12" max="12" width="29.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -5686,33 +6029,36 @@
       <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
+        <v>714</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="63.45">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="63.45">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -5733,18 +6079,18 @@
         <v>279</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="63.45">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -5765,18 +6111,18 @@
         <v>282</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="79.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="79.3">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -5794,21 +6140,22 @@
         <v>284</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="63.45">
+        <v>536</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="63.45">
       <c r="A6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5829,21 +6176,22 @@
         <v>288</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="63.45">
+        <v>542</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="63.45">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -5864,18 +6212,21 @@
         <v>291</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="63.45">
+        <v>536</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="63.45">
       <c r="A8" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -5893,18 +6244,18 @@
         <v>293</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="79.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="79.3">
       <c r="A9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -5922,18 +6273,21 @@
         <v>295</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="111">
+        <v>536</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="111">
       <c r="A10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -5951,18 +6305,21 @@
         <v>297</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="111">
+        <v>536</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="111">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -5980,18 +6337,21 @@
         <v>299</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="111">
+        <v>542</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="111">
       <c r="A12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -6009,18 +6369,21 @@
         <v>301</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="63.45">
+        <v>536</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="63.45">
       <c r="A13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -6038,18 +6401,21 @@
         <v>303</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="142.75">
+        <v>536</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="142.75">
       <c r="A14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -6067,18 +6433,21 @@
         <v>305</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="63.45">
+        <v>536</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="63.45">
       <c r="A15" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -6096,18 +6465,21 @@
         <v>307</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="111">
+        <v>536</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="111">
       <c r="A16" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -6125,18 +6497,18 @@
         <v>309</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="95.15">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="95.15">
       <c r="A17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -6157,18 +6529,18 @@
         <v>312</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="63.45">
       <c r="A18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -6186,18 +6558,18 @@
         <v>314</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="63.45">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="63.45">
       <c r="A19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -6218,18 +6590,18 @@
         <v>317</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="63.45">
       <c r="A20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -6250,18 +6622,18 @@
         <v>320</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="63.45">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="63.45">
       <c r="A21" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -6282,18 +6654,18 @@
         <v>323</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="190.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="190.3">
       <c r="A22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -6314,18 +6686,18 @@
         <v>326</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="111">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="111">
       <c r="A23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -6343,18 +6715,21 @@
         <v>328</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="79.3">
+        <v>536</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="79.3">
       <c r="A24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -6372,18 +6747,18 @@
         <v>331</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="95.15">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="95.15">
       <c r="A25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -6401,18 +6776,19 @@
         <v>334</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>715</v>
+        <v>529</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="63.45">
+        <v>553</v>
+      </c>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="63.45">
       <c r="A26" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -6433,18 +6809,21 @@
         <v>337</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="79.3">
+        <v>529</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="79.3">
       <c r="A27" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -6465,13 +6844,13 @@
         <v>340</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -6512,11 +6891,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C33A802-6250-974D-A71A-A0FE459D6586}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:L2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -6529,12 +6910,14 @@
     <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.35546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="18.5" customWidth="1"/>
+    <col min="9" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="16.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1">
+    <row r="1" spans="1:13" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -6557,33 +6940,36 @@
       <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1">
+        <v>714</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="79.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="79.3">
       <c r="A3" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -6603,13 +6989,23 @@
       <c r="H3" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="I3" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K3" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="63.45">
+        <v>693</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="63.45">
       <c r="A4" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -6629,13 +7025,23 @@
       <c r="H4" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="I4" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K4" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="126.9">
+        <v>553</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="126.9">
       <c r="A5" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -6655,19 +7061,29 @@
       <c r="H5" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="I5" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K5" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="79.3">
+        <v>693</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="79.3">
       <c r="A6" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>82</v>
@@ -6681,13 +7097,23 @@
       <c r="H6" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K6" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="79.3">
+        <v>621</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="79.3">
       <c r="A7" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -6710,13 +7136,23 @@
       <c r="H7" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="I7" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K7" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="158.6">
+        <v>621</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="158.6">
       <c r="A8" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -6725,7 +7161,7 @@
         <v>354</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F8" t="s">
         <v>355</v>
@@ -6734,15 +7170,25 @@
         <v>158</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="95.15">
+        <v>522</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="95.15">
       <c r="A9" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -6765,13 +7211,23 @@
       <c r="H9" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="I9" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K9" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="111">
+        <v>693</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="111">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -6791,13 +7247,23 @@
       <c r="H10" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="I10" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K10" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="63.45">
+        <v>693</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="63.45">
       <c r="A11" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -6817,13 +7283,23 @@
       <c r="H11" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="I11" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K11" s="7" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="111">
+        <v>621</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="111">
       <c r="A12" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -6843,13 +7319,23 @@
       <c r="H12" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="I12" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="K12" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="158.6">
+        <v>553</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="158.6">
       <c r="A13" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -6869,19 +7355,27 @@
       <c r="H13" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="I13" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>542</v>
+      </c>
       <c r="K13" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>542</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
     </row>
@@ -6925,11 +7419,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E771B27A-0C17-BC41-8D9F-0760E4D44E38}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:L2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -6945,9 +7439,9 @@
     <col min="9" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1">
+    <row r="1" spans="1:13" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -6970,33 +7464,36 @@
       <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1">
+        <v>714</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="63.45">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="63.45">
       <c r="A3" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7019,13 +7516,22 @@
       <c r="H3" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="I3" t="s">
+        <v>706</v>
+      </c>
+      <c r="J3" t="s">
+        <v>706</v>
+      </c>
       <c r="K3" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="111">
+        <v>542</v>
+      </c>
+      <c r="M3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="111">
       <c r="A4" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -7048,13 +7554,19 @@
       <c r="H4" s="2" t="s">
         <v>372</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>529</v>
+      </c>
       <c r="K4" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="63.45">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="63.45">
       <c r="A5" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -7074,13 +7586,22 @@
       <c r="H5" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="I5" t="s">
+        <v>706</v>
+      </c>
+      <c r="J5" t="s">
+        <v>706</v>
+      </c>
       <c r="K5" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="63.45">
+        <v>553</v>
+      </c>
+      <c r="M5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="63.45">
       <c r="A6" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -7100,13 +7621,19 @@
       <c r="H6" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="I6" t="s">
+        <v>706</v>
+      </c>
+      <c r="J6" t="s">
+        <v>706</v>
+      </c>
       <c r="K6" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="111">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="111">
       <c r="A7" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -7129,13 +7656,19 @@
       <c r="H7" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="I7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J7" t="s">
+        <v>706</v>
+      </c>
       <c r="K7" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="95.15">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="95.15">
       <c r="A8" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -7155,13 +7688,19 @@
       <c r="H8" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>542</v>
+      </c>
       <c r="K8" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="47.6">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="47.6">
       <c r="A9" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -7181,13 +7720,19 @@
       <c r="G9" t="s">
         <v>178</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>542</v>
+      </c>
       <c r="K9" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="63.45">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="63.45">
       <c r="A10" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -7210,13 +7755,22 @@
       <c r="H10" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>542</v>
+      </c>
       <c r="K10" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="95.15">
+        <v>542</v>
+      </c>
+      <c r="M10" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="95.15">
       <c r="A11" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -7239,13 +7793,22 @@
       <c r="H11" s="2" t="s">
         <v>390</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>542</v>
+      </c>
       <c r="K11" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="63.45">
+        <v>542</v>
+      </c>
+      <c r="M11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="63.45">
       <c r="A12" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -7268,13 +7831,22 @@
       <c r="H12" s="2" t="s">
         <v>394</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>542</v>
+      </c>
       <c r="K12" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="79.3">
+        <v>542</v>
+      </c>
+      <c r="M12" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="79.3">
       <c r="A13" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -7297,13 +7869,22 @@
       <c r="H13" s="2" t="s">
         <v>397</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>542</v>
+      </c>
       <c r="K13" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="95.15">
+        <v>553</v>
+      </c>
+      <c r="M13" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="95.15">
       <c r="A14" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -7326,13 +7907,22 @@
       <c r="H14" s="2" t="s">
         <v>400</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K14" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="111">
+        <v>738</v>
+      </c>
+      <c r="M14" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="111">
       <c r="A15" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -7355,13 +7945,22 @@
       <c r="H15" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K15" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="79.3">
+        <v>553</v>
+      </c>
+      <c r="M15" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="79.3">
       <c r="A16" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -7384,13 +7983,22 @@
       <c r="H16" s="2" t="s">
         <v>406</v>
       </c>
+      <c r="I16" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K16" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="63.45">
+        <v>553</v>
+      </c>
+      <c r="M16" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="63.45">
       <c r="A17" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -7410,13 +8018,22 @@
       <c r="H17" s="2" t="s">
         <v>408</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K17" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="79.3">
+        <v>553</v>
+      </c>
+      <c r="M17" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="79.3">
       <c r="A18" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -7436,13 +8053,22 @@
       <c r="H18" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="I18" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K18" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="63.45">
+        <v>553</v>
+      </c>
+      <c r="M18" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="63.45">
       <c r="A19" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -7465,13 +8091,22 @@
       <c r="H19" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="I19" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K19" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="79.3">
+        <v>553</v>
+      </c>
+      <c r="M19" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="79.3">
       <c r="A20" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -7494,13 +8129,22 @@
       <c r="H20" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="I20" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K20" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="63.45">
+        <v>553</v>
+      </c>
+      <c r="M20" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="63.45">
       <c r="A21" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -7523,13 +8167,22 @@
       <c r="H21" s="2" t="s">
         <v>419</v>
       </c>
+      <c r="I21" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K21" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="111">
+        <v>553</v>
+      </c>
+      <c r="M21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="111">
       <c r="A22" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -7552,13 +8205,22 @@
       <c r="H22" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>706</v>
+      </c>
       <c r="K22" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="63.45">
+        <v>553</v>
+      </c>
+      <c r="M22" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="63.45">
       <c r="A23" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -7581,8 +8243,14 @@
       <c r="H23" s="2" t="s">
         <v>425</v>
       </c>
+      <c r="I23" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>542</v>
+      </c>
       <c r="K23" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -7625,7 +8293,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:M2"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -7633,18 +8301,19 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.35546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.35546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.35546875" customWidth="1"/>
+    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.35546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.35546875" customWidth="1"/>
+    <col min="12" max="12" width="24.2109375" customWidth="1"/>
+    <col min="13" max="13" width="46.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -7652,51 +8321,51 @@
       <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>527</v>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="I1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="5" t="s">
+        <v>714</v>
+      </c>
       <c r="M1" s="5" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1">
       <c r="B2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="J2" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="79.3">
       <c r="A3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7704,25 +8373,34 @@
       <c r="C3" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F3" t="s">
+        <v>353</v>
+      </c>
       <c r="G3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H3" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>427</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="174.45">
       <c r="A4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -7730,25 +8408,31 @@
       <c r="C4" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
       <c r="G4" t="s">
-        <v>353</v>
-      </c>
-      <c r="H4" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>429</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="63.45">
       <c r="A5" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -7756,25 +8440,31 @@
       <c r="C5" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="F5" t="s">
+        <v>353</v>
+      </c>
       <c r="G5" t="s">
-        <v>353</v>
-      </c>
-      <c r="H5" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>431</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="79.3">
       <c r="A6" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -7782,54 +8472,66 @@
       <c r="C6" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
       <c r="G6" t="s">
-        <v>353</v>
-      </c>
-      <c r="H6" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>433</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="95.15">
       <c r="A7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>434</v>
       </c>
+      <c r="F7" t="s">
+        <v>353</v>
+      </c>
       <c r="G7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>435</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="79.3">
       <c r="A8" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -7837,83 +8539,77 @@
       <c r="C8" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="F8" t="s">
+        <v>353</v>
+      </c>
       <c r="G8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H8" t="s">
         <v>178</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:13">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4">
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4">
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4">
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4">
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="1"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="dont-hardcode-credentials" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Secret_Management_Requirements.md#dont-hardcode-credentials" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Secret_Management_Requirements.md - dont-hardcode-credentials" xr:uid="{66F4F016-15DA-5D4A-8E3E-4D4332E70D42}"/>
@@ -7930,11 +8626,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A5A39B-555E-3746-87F2-78F8CC4D71C5}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:L2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
@@ -7942,17 +8638,16 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.35546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>148</v>
@@ -7960,48 +8655,45 @@
       <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>527</v>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1">
+      <c r="H1" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1">
       <c r="B2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>711</v>
+      </c>
       <c r="I2" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="79.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="79.3">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -8009,25 +8701,31 @@
       <c r="C3" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>544</v>
+      <c r="D3" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>214</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="47.6">
+        <v>719</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="47.6">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -8035,42 +8733,54 @@
       <c r="C4" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="63.45">
+      <c r="H4" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="63.45">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>531</v>
+        <v>614</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>214</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="95.15">
+        <v>719</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="95.15">
       <c r="A6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -8078,97 +8788,89 @@
       <c r="C6" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>618</v>
+      <c r="D6" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>214</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>445</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>719</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="10"/>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="10"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4">
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:4">
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:4">
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:4">
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="1"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" location="establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" xr:uid="{21B64E1C-CEA9-8E40-AD5A-7E1114798F9E}"/>
@@ -8360,18 +9062,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8393,6 +9095,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E094DD-2F11-41F5-9852-40A0A2917592}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D593A5-5991-4213-B92F-DC6BC46C28B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -8406,12 +9116,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E094DD-2F11-41F5-9852-40A0A2917592}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/report/source/Supporting/Requirements Master Workbook_v1.0.xlsx
+++ b/report/source/Supporting/Requirements Master Workbook_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/979ded2d4b39a8ae/Documents/GitHub/RABET-V-Pilot/report/source/Supporting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enhancedvotingcom-my.sharepoint.com/personal/aaron_wilson_enhancedvoting_com/Documents/Documents/GitHub/RABET-V-Pilot/report/source/Supporting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="8_{D10B4814-D58C-4CB4-8104-E4818B89BD6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5784BB86-C81E-42A4-860A-92FC67549969}"/>
+  <xr:revisionPtr revIDLastSave="617" documentId="8_{D10B4814-D58C-4CB4-8104-E4818B89BD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CDA37B51-7BF4-4B25-8E6C-C03D0B7E053C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{395A1401-83D8-BE42-8202-6ADEA40700EF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{395A1401-83D8-BE42-8202-6ADEA40700EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="12" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="752">
   <si>
     <t>Before deploying any new asset or instances, change all default passwords to have strong values consistent with policy.</t>
   </si>
@@ -2178,9 +2178,6 @@
     <t>Streamlined Test</t>
   </si>
   <si>
-    <t>Sanity Test</t>
-  </si>
-  <si>
     <t>Documentation Audit</t>
   </si>
   <si>
@@ -2299,6 +2296,9 @@
   </si>
   <si>
     <t>Penetration testing, conducted internally or by a 3rd party</t>
+  </si>
+  <si>
+    <t>Basic Test</t>
   </si>
 </sst>
 </file>
@@ -2770,11 +2770,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.140625" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="21.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.125" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2785,7 +2785,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29.15">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="16" t="s">
         <v>621</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.15">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="16" t="s">
         <v>553</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.15">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="16" t="s">
         <v>612</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29.15">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="16" t="s">
         <v>696</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29.15">
+    <row r="10" spans="1:2" ht="30">
       <c r="A10" s="16" t="s">
         <v>529</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29.15">
+    <row r="11" spans="1:2" ht="30">
       <c r="A11" s="18" t="s">
         <v>706</v>
       </c>
@@ -2862,20 +2862,20 @@
         <v>707</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29.15">
+    <row r="12" spans="1:2" ht="30">
       <c r="A12" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>712</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>719</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2883,7 +2883,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29.15">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="16" t="s">
         <v>702</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29.15">
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="16" t="s">
         <v>704</v>
       </c>
@@ -2907,24 +2907,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F2B2E-D884-054C-89DD-B1EDAD39E2D7}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:J1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.2109375" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.25" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="15.5" customWidth="1"/>
   </cols>
@@ -2957,10 +2957,10 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
@@ -2969,16 +2969,16 @@
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="79.3">
+    <row r="3" spans="1:12" ht="78.75">
       <c r="A3" t="s">
         <v>658</v>
       </c>
@@ -3010,106 +3010,100 @@
         <v>529</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="111">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="63">
       <c r="A4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
         <v>353</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="63.45">
+    <row r="5" spans="1:12" ht="63">
       <c r="A5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>457</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>706</v>
+        <v>542</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="63.45">
+    </row>
+    <row r="6" spans="1:12" ht="94.5">
       <c r="A6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>456</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>542</v>
@@ -3118,56 +3112,59 @@
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="95.15">
+    <row r="7" spans="1:12" ht="75">
       <c r="A7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="F7" t="s">
-        <v>525</v>
+        <v>353</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>542</v>
+        <v>706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="72.900000000000006">
+        <v>652</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75">
       <c r="A8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>460</v>
+        <v>742</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>461</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>706</v>
@@ -3178,28 +3175,34 @@
       <c r="J8" s="7" t="s">
         <v>652</v>
       </c>
+      <c r="K8" t="s">
+        <v>745</v>
+      </c>
       <c r="L8" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="72.900000000000006">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="63">
       <c r="A9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>743</v>
+        <v>464</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>706</v>
@@ -3211,74 +3214,68 @@
         <v>652</v>
       </c>
       <c r="K9" t="s">
+        <v>745</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="63.45">
+    </row>
+    <row r="10" spans="1:12" ht="94.5">
       <c r="A10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F10" t="s">
         <v>353</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>706</v>
+        <v>542</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="K10" t="s">
-        <v>746</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="79.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="63">
       <c r="A11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F11" t="s">
         <v>353</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>542</v>
@@ -3287,30 +3284,30 @@
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="63.45">
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F12" t="s">
-        <v>353</v>
+        <v>475</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>542</v>
@@ -3319,59 +3316,59 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="63.45">
+    <row r="13" spans="1:12" ht="78.75">
       <c r="A13" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F13" t="s">
-        <v>475</v>
+        <v>353</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>542</v>
+        <v>706</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="79.3">
+      <c r="L13" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="94.5">
       <c r="A14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F14" t="s">
-        <v>353</v>
+        <v>481</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>706</v>
@@ -3383,27 +3380,30 @@
         <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="79.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="78.75">
       <c r="A15" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
+      </c>
+      <c r="F15" t="s">
+        <v>353</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>706</v>
@@ -3412,198 +3412,137 @@
         <v>706</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>542</v>
+        <v>652</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="79.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="94.5">
       <c r="A16" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F16" t="s">
         <v>353</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>706</v>
+        <v>542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="95.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="63">
       <c r="A17" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>491</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="63.45">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="63">
       <c r="A18" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F18" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>719</v>
+        <v>495</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="63.45">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="63">
       <c r="A19" t="s">
-        <v>676</v>
-      </c>
-      <c r="B19" s="1">
+        <v>679</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F19" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>542</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="47.6">
-      <c r="A20" t="s">
-        <v>678</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" t="s">
-        <v>719</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K20" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="63.45">
-      <c r="A21" t="s">
-        <v>679</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F21" t="s">
-        <v>491</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="J21" s="7" t="s">
         <v>661</v>
       </c>
     </row>
@@ -3613,24 +3552,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="install-the-latest-stable-version-of-any-security-related-updates-on-all-network-devices" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#install-the-latest-stable-version-of-any-security-related-updates-on-all-network-devices" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - install-the-latest-stable-version-of-any-security-related-updates-on-all-network-devices" xr:uid="{7479870B-98DF-6B4B-AF4E-B9F671FF17F7}"/>
-    <hyperlink ref="C5" r:id="rId2" location="ensure-anti-malware-software-and-signatures-are-updated" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#ensure-anti-malware-software-and-signatures-are-updated" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - ensure-anti-malware-software-and-signatures-are-updated" xr:uid="{420A45BB-6755-4341-8D17-8FEE455FF548}"/>
-    <hyperlink ref="C6" r:id="rId3" location="configure-devices-to-not-auto-run-content" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#configure-devices-to-not-auto-run-content" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - configure-devices-to-not-auto-run-content" xr:uid="{0F7860C0-2805-C944-9485-B2DFFC654497}"/>
-    <hyperlink ref="C7" r:id="rId4" location="use-usb-port-protectors-on-unused-ports" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#use-usb-port-protectors-on-unused-ports" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - use-usb-port-protectors-on-unused-ports" xr:uid="{22233171-ED24-AB40-A684-C8323D2F3F88}"/>
-    <hyperlink ref="C4" r:id="rId5" location="perform-complete-system-backups" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#perform-complete-system-backups" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - perform-complete-system-backups" xr:uid="{9F806AA8-9F16-8046-980A-E1A9B4E2E2BB}"/>
-    <hyperlink ref="C8" r:id="rId6" location="establish-secure-configurations" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#establish-secure-configurations" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - establish-secure-configurations" xr:uid="{09AEDC39-0470-EB46-B009-4A8916FFDA6E}"/>
-    <hyperlink ref="C9" r:id="rId7" location="deploy-operating-system-patchs" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#deploy-operating-system-patchs" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - deploy-operating-system-patchs" xr:uid="{EC565F60-10AA-9945-AE5A-9D0EA8E435FB}"/>
-    <hyperlink ref="C10" r:id="rId8" location="deploy-software-patchs" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#deploy-software-patchs" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - deploy-software-patchs" xr:uid="{25A17ED3-DD3D-1B4E-A053-E1522B96A54D}"/>
-    <hyperlink ref="C11" r:id="rId9" location="utilize-centrally-managed-anti-malware-software" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#utilize-centrally-managed-anti-malware-software" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - utilize-centrally-managed-anti-malware-software" xr:uid="{C5224327-E00B-994D-83A5-6E55769B628B}"/>
-    <hyperlink ref="C12" r:id="rId10" location="limit-access-to-scripting-tools" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#limit-access-to-scripting-tools" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - limit-access-to-scripting-tools" xr:uid="{533E083B-C5BA-C74C-9B2F-755865DFA896}"/>
-    <hyperlink ref="C13" r:id="rId11" location="configure-anti-malware-scanning-of-removable-devices" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#configure-anti-malware-scanning-of-removable-devices" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - configure-anti-malware-scanning-of-removable-devices" xr:uid="{A413E4EB-7BBE-8346-A597-E26C18B75A16}"/>
-    <hyperlink ref="C14" r:id="rId12" location="use-standard-hardening-configuration-templates-for-databases" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#use-standard-hardening-configuration-templates-for-databases" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - use-standard-hardening-configuration-templates-for-databases" xr:uid="{E04A172B-B4AB-084F-9948-B4B8C237238A}"/>
-    <hyperlink ref="C15" r:id="rId13" location="implement-automated-configuration-monitoring-systems" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#implement-automated-configuration-monitoring-systems" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - implement-automated-configuration-monitoring-systems" xr:uid="{394CB908-5336-4148-9553-765532B7C665}"/>
-    <hyperlink ref="C16" r:id="rId14" location="deploy-system-configuration-management-tools" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#deploy-system-configuration-management-tools" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - deploy-system-configuration-management-tools" xr:uid="{38BEC614-06EB-E040-A336-3CBD830AA5C7}"/>
-    <hyperlink ref="C17" r:id="rId15" location="enable-operating-system-anti-exploitation-features-and-deploy-anti-exploit-technologies" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#enable-operating-system-anti-exploitation-features-and-deploy-anti-exploit-technologies" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - enable-operating-system-anti-exploitation-features-and-deploy-anti-exploit-technologies" xr:uid="{BE451221-DCCF-FC41-A40C-8F14DB4F2E99}"/>
-    <hyperlink ref="C18" r:id="rId16" location="disable-access-to-usb-devices-where-possible" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#disable-access-to-usb-devices-where-possible" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - disable-access-to-usb-devices-where-possible" xr:uid="{068F86D4-6CC2-E54A-A89C-C75D2DC2514A}"/>
-    <hyperlink ref="C19" r:id="rId17" location="use-usb-write-blocker-to-transfer-data-into-sensitive-systems" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#use-usb-write-blocker-to-transfer-data-into-sensitive-systems" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - use-usb-write-blocker-to-transfer-data-into-sensitive-systems" xr:uid="{51108FFD-6D23-744B-907C-B62D0E7C0282}"/>
-    <hyperlink ref="C20" r:id="rId18" location="no-single-points-of-failure" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#no-single-points-of-failure" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - no-single-points-of-failure" xr:uid="{F027F9F0-E259-3B45-9503-AAC687C70A49}"/>
-    <hyperlink ref="C21" r:id="rId19" location="Deny-application-execution-by-default" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#no-single-points-of-failure" xr:uid="{FDAF64F7-C1EC-164E-9EF1-89713527085D}"/>
+    <hyperlink ref="C5" r:id="rId2" location="configure-devices-to-not-auto-run-content" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#configure-devices-to-not-auto-run-content" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - configure-devices-to-not-auto-run-content" xr:uid="{0F7860C0-2805-C944-9485-B2DFFC654497}"/>
+    <hyperlink ref="C7" r:id="rId3" location="establish-secure-configurations" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#establish-secure-configurations" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - establish-secure-configurations" xr:uid="{09AEDC39-0470-EB46-B009-4A8916FFDA6E}"/>
+    <hyperlink ref="C8" r:id="rId4" location="deploy-operating-system-patchs" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#deploy-operating-system-patchs" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - deploy-operating-system-patchs" xr:uid="{EC565F60-10AA-9945-AE5A-9D0EA8E435FB}"/>
+    <hyperlink ref="C9" r:id="rId5" location="deploy-software-patchs" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#deploy-software-patchs" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - deploy-software-patchs" xr:uid="{25A17ED3-DD3D-1B4E-A053-E1522B96A54D}"/>
+    <hyperlink ref="C10" r:id="rId6" location="utilize-centrally-managed-anti-malware-software" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#utilize-centrally-managed-anti-malware-software" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - utilize-centrally-managed-anti-malware-software" xr:uid="{C5224327-E00B-994D-83A5-6E55769B628B}"/>
+    <hyperlink ref="C11" r:id="rId7" location="limit-access-to-scripting-tools" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#limit-access-to-scripting-tools" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - limit-access-to-scripting-tools" xr:uid="{533E083B-C5BA-C74C-9B2F-755865DFA896}"/>
+    <hyperlink ref="C12" r:id="rId8" location="configure-anti-malware-scanning-of-removable-devices" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#configure-anti-malware-scanning-of-removable-devices" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - configure-anti-malware-scanning-of-removable-devices" xr:uid="{A413E4EB-7BBE-8346-A597-E26C18B75A16}"/>
+    <hyperlink ref="C13" r:id="rId9" location="use-standard-hardening-configuration-templates-for-databases" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#use-standard-hardening-configuration-templates-for-databases" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - use-standard-hardening-configuration-templates-for-databases" xr:uid="{E04A172B-B4AB-084F-9948-B4B8C237238A}"/>
+    <hyperlink ref="C14" r:id="rId10" location="implement-automated-configuration-monitoring-systems" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#implement-automated-configuration-monitoring-systems" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - implement-automated-configuration-monitoring-systems" xr:uid="{394CB908-5336-4148-9553-765532B7C665}"/>
+    <hyperlink ref="C15" r:id="rId11" location="deploy-system-configuration-management-tools" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#deploy-system-configuration-management-tools" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - deploy-system-configuration-management-tools" xr:uid="{38BEC614-06EB-E040-A336-3CBD830AA5C7}"/>
+    <hyperlink ref="C16" r:id="rId12" location="enable-operating-system-anti-exploitation-features-and-deploy-anti-exploit-technologies" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#enable-operating-system-anti-exploitation-features-and-deploy-anti-exploit-technologies" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - enable-operating-system-anti-exploitation-features-and-deploy-anti-exploit-technologies" xr:uid="{BE451221-DCCF-FC41-A40C-8F14DB4F2E99}"/>
+    <hyperlink ref="C17" r:id="rId13" location="disable-access-to-usb-devices-where-possible" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#disable-access-to-usb-devices-where-possible" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - disable-access-to-usb-devices-where-possible" xr:uid="{068F86D4-6CC2-E54A-A89C-C75D2DC2514A}"/>
+    <hyperlink ref="C18" r:id="rId14" location="use-usb-write-blocker-to-transfer-data-into-sensitive-systems" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#use-usb-write-blocker-to-transfer-data-into-sensitive-systems" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - use-usb-write-blocker-to-transfer-data-into-sensitive-systems" xr:uid="{51108FFD-6D23-744B-907C-B62D0E7C0282}"/>
+    <hyperlink ref="C19" r:id="rId15" location="Deny-application-execution-by-default" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#no-single-points-of-failure" xr:uid="{FDAF64F7-C1EC-164E-9EF1-89713527085D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3641,25 +3576,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E199A56-44C3-174E-A6AF-69D697FFF6C0}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.640625" customWidth="1"/>
-    <col min="12" max="12" width="15.640625" customWidth="1"/>
+    <col min="8" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1">
@@ -3690,10 +3625,10 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
@@ -3702,16 +3637,16 @@
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="63.45">
+    <row r="3" spans="1:12" ht="63">
       <c r="A3" t="s">
         <v>680</v>
       </c>
@@ -3734,7 +3669,7 @@
         <v>502</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>542</v>
@@ -3743,7 +3678,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="95.15">
+    <row r="4" spans="1:12" ht="94.5">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -3772,10 +3707,10 @@
         <v>687</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="63.45">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="63">
       <c r="A5" t="s">
         <v>682</v>
       </c>
@@ -3804,10 +3739,10 @@
         <v>553</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="79.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="78.75">
       <c r="A6" t="s">
         <v>683</v>
       </c>
@@ -3836,10 +3771,10 @@
         <v>687</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="79.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="78.75">
       <c r="A7" t="s">
         <v>684</v>
       </c>
@@ -3859,7 +3794,7 @@
         <v>511</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>706</v>
@@ -3868,10 +3803,10 @@
         <v>529</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="79.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="78.75">
       <c r="A8" t="s">
         <v>685</v>
       </c>
@@ -3900,10 +3835,10 @@
         <v>677</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="79.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="78.75">
       <c r="A9" t="s">
         <v>686</v>
       </c>
@@ -3935,10 +3870,10 @@
         <v>687</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="79.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="78.75">
       <c r="A10" t="s">
         <v>688</v>
       </c>
@@ -3958,7 +3893,7 @@
         <v>518</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>706</v>
@@ -3967,10 +3902,10 @@
         <v>687</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="95.15">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="94.5">
       <c r="A11" t="s">
         <v>689</v>
       </c>
@@ -3990,7 +3925,7 @@
         <v>520</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>706</v>
@@ -3999,7 +3934,7 @@
         <v>687</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4063,25 +3998,25 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="33.35546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.28515625" customWidth="1"/>
-    <col min="12" max="12" width="49.2109375" customWidth="1"/>
+    <col min="8" max="9" width="33.375" customWidth="1"/>
+    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.25" customWidth="1"/>
+    <col min="12" max="12" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1">
@@ -4112,10 +4047,10 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
@@ -4124,16 +4059,16 @@
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="63.45">
+    <row r="3" spans="1:12" ht="63">
       <c r="A3" t="s">
         <v>527</v>
       </c>
@@ -4153,22 +4088,22 @@
         <v>151</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>716</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="174.9">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="63">
       <c r="A4" t="s">
         <v>530</v>
       </c>
@@ -4197,10 +4132,10 @@
         <v>531</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="95.15">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="94.5">
       <c r="A5" t="s">
         <v>532</v>
       </c>
@@ -4220,20 +4155,20 @@
         <v>155</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>529</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="95.15">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="94.5">
       <c r="A6" t="s">
         <v>533</v>
       </c>
@@ -4253,7 +4188,7 @@
         <v>159</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>706</v>
@@ -4262,10 +4197,10 @@
         <v>531</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="63.45">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="78.75">
       <c r="A7" t="s">
         <v>534</v>
       </c>
@@ -4285,7 +4220,7 @@
         <v>162</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>706</v>
@@ -4294,10 +4229,10 @@
         <v>531</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="174.45">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="173.25">
       <c r="A8" t="s">
         <v>535</v>
       </c>
@@ -4326,10 +4261,10 @@
         <v>536</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="126.9">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="126">
       <c r="A9" t="s">
         <v>537</v>
       </c>
@@ -4358,10 +4293,10 @@
         <v>531</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="174.45">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="173.25">
       <c r="A10" t="s">
         <v>538</v>
       </c>
@@ -4391,10 +4326,10 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="79.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="78.75">
       <c r="A11" t="s">
         <v>539</v>
       </c>
@@ -4424,10 +4359,10 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="95.15">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="94.5">
       <c r="A12" t="s">
         <v>541</v>
       </c>
@@ -4447,16 +4382,16 @@
         <v>173</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>542</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="79.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="78.75">
       <c r="A13" t="s">
         <v>543</v>
       </c>
@@ -4479,16 +4414,16 @@
         <v>176</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="47.6">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="47.25">
       <c r="A14" t="s">
         <v>544</v>
       </c>
@@ -4515,10 +4450,10 @@
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="79.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="78.75">
       <c r="A15" t="s">
         <v>545</v>
       </c>
@@ -4538,19 +4473,19 @@
         <v>176</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="63.45">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="63">
       <c r="A16" t="s">
         <v>546</v>
       </c>
@@ -4573,7 +4508,7 @@
         <v>182</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>706</v>
@@ -4582,10 +4517,10 @@
         <v>531</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="79.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="78.75">
       <c r="A17" t="s">
         <v>546</v>
       </c>
@@ -4608,7 +4543,7 @@
         <v>185</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>706</v>
@@ -4617,10 +4552,10 @@
         <v>531</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="126.9">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="126">
       <c r="A18" t="s">
         <v>547</v>
       </c>
@@ -4643,16 +4578,16 @@
         <v>188</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="63.45">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="63">
       <c r="A19" t="s">
         <v>548</v>
       </c>
@@ -4681,13 +4616,13 @@
         <v>706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="111">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="110.25">
       <c r="A20" t="s">
         <v>549</v>
       </c>
@@ -4710,7 +4645,7 @@
         <v>194</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>706</v>
@@ -4719,7 +4654,7 @@
         <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -4756,26 +4691,26 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.640625" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="32.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.640625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
+    <col min="11" max="11" width="32.875" customWidth="1"/>
+    <col min="12" max="12" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1">
@@ -4806,10 +4741,10 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
@@ -4818,16 +4753,16 @@
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="142.75">
+    <row r="3" spans="1:12" ht="141.75">
       <c r="A3" t="s">
         <v>552</v>
       </c>
@@ -4856,10 +4791,10 @@
         <v>553</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="126.9">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="126">
       <c r="A4" t="s">
         <v>554</v>
       </c>
@@ -4888,10 +4823,10 @@
         <v>542</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="126.9">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="126">
       <c r="A5" t="s">
         <v>555</v>
       </c>
@@ -4920,10 +4855,10 @@
         <v>542</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="111">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="110.25">
       <c r="A6" t="s">
         <v>556</v>
       </c>
@@ -4952,10 +4887,10 @@
         <v>536</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="79.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="78.75">
       <c r="A7" t="s">
         <v>557</v>
       </c>
@@ -4981,10 +4916,10 @@
         <v>536</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="79.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="78.75">
       <c r="A8" s="10" t="s">
         <v>558</v>
       </c>
@@ -5013,10 +4948,10 @@
         <v>536</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="63.45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="63">
       <c r="A9" s="10" t="s">
         <v>559</v>
       </c>
@@ -5036,7 +4971,7 @@
         <v>206</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>542</v>
@@ -5045,7 +4980,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="79.3">
+    <row r="10" spans="1:12" ht="78.75">
       <c r="A10" t="s">
         <v>561</v>
       </c>
@@ -5074,10 +5009,10 @@
         <v>536</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="63.45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="63">
       <c r="A11" t="s">
         <v>562</v>
       </c>
@@ -5100,7 +5035,7 @@
         <v>211</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>542</v>
@@ -5170,24 +5105,24 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="20.92578125" customWidth="1"/>
-    <col min="11" max="11" width="36.2109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="8" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="36.25" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1">
@@ -5218,10 +5153,10 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
@@ -5230,16 +5165,16 @@
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="142.75">
+    <row r="3" spans="1:12" ht="141.75">
       <c r="A3" t="s">
         <v>563</v>
       </c>
@@ -5262,7 +5197,7 @@
         <v>215</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>542</v>
@@ -5271,7 +5206,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="95.15">
+    <row r="4" spans="1:12" ht="94.5">
       <c r="A4" t="s">
         <v>564</v>
       </c>
@@ -5303,10 +5238,10 @@
         <v>536</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="111">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="110.25">
       <c r="A5" t="s">
         <v>565</v>
       </c>
@@ -5329,16 +5264,16 @@
         <v>221</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="126.9">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="126">
       <c r="A6" t="s">
         <v>566</v>
       </c>
@@ -5370,7 +5305,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="63.45">
+    <row r="7" spans="1:12" ht="63">
       <c r="A7" t="s">
         <v>567</v>
       </c>
@@ -5390,7 +5325,7 @@
         <v>226</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>542</v>
@@ -5399,7 +5334,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="95.15">
+    <row r="8" spans="1:12" ht="94.5">
       <c r="A8" t="s">
         <v>568</v>
       </c>
@@ -5431,10 +5366,10 @@
         <v>536</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="95.15">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="94.5">
       <c r="A9" t="s">
         <v>569</v>
       </c>
@@ -5457,16 +5392,16 @@
         <v>233</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="158.6">
+    <row r="10" spans="1:12" ht="157.5">
       <c r="A10" t="s">
         <v>570</v>
       </c>
@@ -5489,16 +5424,16 @@
         <v>236</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="95.15">
+    <row r="11" spans="1:12" ht="94.5">
       <c r="A11" t="s">
         <v>571</v>
       </c>
@@ -5521,7 +5456,7 @@
         <v>239</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>542</v>
@@ -5530,7 +5465,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="63.45">
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" t="s">
         <v>572</v>
       </c>
@@ -5553,16 +5488,16 @@
         <v>242</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="63.45">
+    <row r="13" spans="1:12" ht="63">
       <c r="A13" t="s">
         <v>573</v>
       </c>
@@ -5585,16 +5520,16 @@
         <v>245</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>529</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="79.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="78.75">
       <c r="A14" t="s">
         <v>574</v>
       </c>
@@ -5617,16 +5552,16 @@
         <v>248</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="63.45">
+    <row r="15" spans="1:12" ht="63">
       <c r="A15" t="s">
         <v>575</v>
       </c>
@@ -5649,7 +5584,7 @@
         <v>251</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>542</v>
@@ -5658,7 +5593,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="63.45">
+    <row r="16" spans="1:12" ht="63">
       <c r="A16" t="s">
         <v>576</v>
       </c>
@@ -5678,7 +5613,7 @@
         <v>253</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>542</v>
@@ -5687,7 +5622,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="63.45">
+    <row r="17" spans="1:12" ht="63">
       <c r="A17" t="s">
         <v>577</v>
       </c>
@@ -5710,7 +5645,7 @@
         <v>256</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>542</v>
@@ -5719,7 +5654,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="63.45">
+    <row r="18" spans="1:12" ht="63">
       <c r="A18" t="s">
         <v>578</v>
       </c>
@@ -5751,10 +5686,10 @@
         <v>536</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="63.45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="63">
       <c r="A19" t="s">
         <v>579</v>
       </c>
@@ -5783,13 +5718,13 @@
         <v>529</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="63.45">
+    </row>
+    <row r="20" spans="1:12" ht="63">
       <c r="A20" t="s">
         <v>580</v>
       </c>
@@ -5809,16 +5744,16 @@
         <v>265</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="63.45">
+    <row r="21" spans="1:12" ht="63">
       <c r="A21" t="s">
         <v>581</v>
       </c>
@@ -5841,7 +5776,7 @@
         <v>268</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>542</v>
@@ -5850,7 +5785,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="63.45">
+    <row r="22" spans="1:12" ht="63">
       <c r="A22" t="s">
         <v>582</v>
       </c>
@@ -5873,7 +5808,7 @@
         <v>271</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>542</v>
@@ -5882,7 +5817,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="63.45">
+    <row r="23" spans="1:12" ht="63">
       <c r="A23" t="s">
         <v>583</v>
       </c>
@@ -5905,7 +5840,7 @@
         <v>274</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>542</v>
@@ -5914,7 +5849,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="142.75">
+    <row r="24" spans="1:12" ht="141.75">
       <c r="A24" t="s">
         <v>584</v>
       </c>
@@ -5946,7 +5881,7 @@
         <v>542</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -5987,24 +5922,24 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="43.140625" customWidth="1"/>
-    <col min="12" max="12" width="29.35546875" customWidth="1"/>
+    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1">
@@ -6035,10 +5970,10 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
@@ -6047,16 +5982,16 @@
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="63.45">
+    <row r="3" spans="1:12" ht="63">
       <c r="A3" t="s">
         <v>585</v>
       </c>
@@ -6079,7 +6014,7 @@
         <v>279</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>542</v>
@@ -6088,7 +6023,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="63.45">
+    <row r="4" spans="1:12" ht="63">
       <c r="A4" t="s">
         <v>586</v>
       </c>
@@ -6111,16 +6046,16 @@
         <v>282</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="79.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="78.75">
       <c r="A5" t="s">
         <v>587</v>
       </c>
@@ -6150,10 +6085,10 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="63.45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="63">
       <c r="A6" t="s">
         <v>588</v>
       </c>
@@ -6186,10 +6121,10 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="7" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="63.45">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="63">
       <c r="A7" t="s">
         <v>589</v>
       </c>
@@ -6221,10 +6156,10 @@
         <v>536</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="63.45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="63">
       <c r="A8" t="s">
         <v>590</v>
       </c>
@@ -6244,7 +6179,7 @@
         <v>293</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>529</v>
@@ -6253,7 +6188,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="79.3">
+    <row r="9" spans="1:12" ht="78.75">
       <c r="A9" t="s">
         <v>591</v>
       </c>
@@ -6282,10 +6217,10 @@
         <v>536</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="111">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="110.25">
       <c r="A10" t="s">
         <v>592</v>
       </c>
@@ -6314,10 +6249,10 @@
         <v>536</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="111">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="110.25">
       <c r="A11" t="s">
         <v>593</v>
       </c>
@@ -6346,10 +6281,10 @@
         <v>542</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="111">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="110.25">
       <c r="A12" t="s">
         <v>594</v>
       </c>
@@ -6378,10 +6313,10 @@
         <v>536</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="63.45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="63">
       <c r="A13" t="s">
         <v>595</v>
       </c>
@@ -6410,10 +6345,10 @@
         <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="142.75">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="141.75">
       <c r="A14" t="s">
         <v>596</v>
       </c>
@@ -6442,10 +6377,10 @@
         <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="63.45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="63">
       <c r="A15" t="s">
         <v>597</v>
       </c>
@@ -6474,10 +6409,10 @@
         <v>536</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="111">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="110.25">
       <c r="A16" t="s">
         <v>598</v>
       </c>
@@ -6497,16 +6432,16 @@
         <v>309</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="95.15">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="94.5">
       <c r="A17" t="s">
         <v>599</v>
       </c>
@@ -6529,16 +6464,16 @@
         <v>312</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="63.45">
+    <row r="18" spans="1:12" ht="63">
       <c r="A18" t="s">
         <v>600</v>
       </c>
@@ -6558,7 +6493,7 @@
         <v>314</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>542</v>
@@ -6567,7 +6502,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="63.45">
+    <row r="19" spans="1:12" ht="63">
       <c r="A19" t="s">
         <v>601</v>
       </c>
@@ -6590,7 +6525,7 @@
         <v>317</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>542</v>
@@ -6599,7 +6534,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="63.45">
+    <row r="20" spans="1:12" ht="63">
       <c r="A20" t="s">
         <v>602</v>
       </c>
@@ -6622,7 +6557,7 @@
         <v>320</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>542</v>
@@ -6631,7 +6566,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="63.45">
+    <row r="21" spans="1:12" ht="63">
       <c r="A21" t="s">
         <v>603</v>
       </c>
@@ -6654,7 +6589,7 @@
         <v>323</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>529</v>
@@ -6663,7 +6598,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="190.3">
+    <row r="22" spans="1:12" ht="189">
       <c r="A22" t="s">
         <v>604</v>
       </c>
@@ -6686,16 +6621,16 @@
         <v>326</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="111">
+    <row r="23" spans="1:12" ht="110.25">
       <c r="A23" t="s">
         <v>605</v>
       </c>
@@ -6724,10 +6659,10 @@
         <v>536</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="79.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="78.75">
       <c r="A24" t="s">
         <v>606</v>
       </c>
@@ -6747,7 +6682,7 @@
         <v>331</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>542</v>
@@ -6756,7 +6691,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="95.15">
+    <row r="25" spans="1:12" ht="94.5">
       <c r="A25" t="s">
         <v>607</v>
       </c>
@@ -6786,7 +6721,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="63.45">
+    <row r="26" spans="1:12" ht="63">
       <c r="A26" t="s">
         <v>608</v>
       </c>
@@ -6818,10 +6753,10 @@
         <v>529</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="79.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="78.75">
       <c r="A27" t="s">
         <v>609</v>
       </c>
@@ -6844,7 +6779,7 @@
         <v>340</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>542</v>
@@ -6891,31 +6826,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C33A802-6250-974D-A71A-A0FE459D6586}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.35546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="16.35546875" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>526</v>
       </c>
@@ -6934,40 +6868,37 @@
       <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>709</v>
       </c>
+      <c r="I1" s="20"/>
       <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="K1" s="5" t="s">
+        <v>713</v>
+      </c>
       <c r="L1" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="I2" s="5" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="79.3">
+    <row r="3" spans="1:12" ht="78.75">
       <c r="A3" s="2" t="s">
         <v>616</v>
       </c>
@@ -6983,27 +6914,24 @@
       <c r="F3" t="s">
         <v>169</v>
       </c>
-      <c r="G3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I3" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K3" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="63.45">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="63">
       <c r="A4" s="2" t="s">
         <v>617</v>
       </c>
@@ -7019,27 +6947,24 @@
       <c r="F4" t="s">
         <v>345</v>
       </c>
-      <c r="G4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I4" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K4" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="126.9">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="126">
       <c r="A5" s="2" t="s">
         <v>618</v>
       </c>
@@ -7055,27 +6980,24 @@
       <c r="F5" t="s">
         <v>169</v>
       </c>
-      <c r="G5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I5" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K5" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="79.3">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="78.75">
       <c r="A6" s="2" t="s">
         <v>619</v>
       </c>
@@ -7091,27 +7013,24 @@
       <c r="F6" t="s">
         <v>349</v>
       </c>
-      <c r="G6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I6" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K6" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="79.3">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="78.75">
       <c r="A7" s="2" t="s">
         <v>622</v>
       </c>
@@ -7130,27 +7049,24 @@
       <c r="F7" t="s">
         <v>353</v>
       </c>
-      <c r="G7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I7" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K7" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="158.6">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="157.5">
       <c r="A8" s="2" t="s">
         <v>623</v>
       </c>
@@ -7166,27 +7082,24 @@
       <c r="F8" t="s">
         <v>355</v>
       </c>
-      <c r="G8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>522</v>
       </c>
+      <c r="H8" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I8" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K8" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="95.15">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="110.25">
       <c r="A9" s="2" t="s">
         <v>624</v>
       </c>
@@ -7205,27 +7118,24 @@
       <c r="F9" t="s">
         <v>169</v>
       </c>
-      <c r="G9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="H9" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I9" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K9" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="111">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="110.25">
       <c r="A10" s="2" t="s">
         <v>625</v>
       </c>
@@ -7241,27 +7151,24 @@
       <c r="F10" t="s">
         <v>169</v>
       </c>
-      <c r="G10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="H10" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I10" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K10" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="63.45">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="63">
       <c r="A11" s="2" t="s">
         <v>626</v>
       </c>
@@ -7277,27 +7184,24 @@
       <c r="F11" t="s">
         <v>169</v>
       </c>
-      <c r="G11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="H11" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I11" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K11" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="111">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="110.25">
       <c r="A12" s="2" t="s">
         <v>627</v>
       </c>
@@ -7313,27 +7217,24 @@
       <c r="F12" t="s">
         <v>169</v>
       </c>
-      <c r="G12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="H12" s="7" t="s">
+        <v>706</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>706</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K12" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="158.6">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="173.25">
       <c r="A13" s="2" t="s">
         <v>628</v>
       </c>
@@ -7349,33 +7250,30 @@
       <c r="F13" t="s">
         <v>353</v>
       </c>
-      <c r="G13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="H13" s="7" t="s">
+        <v>718</v>
+      </c>
       <c r="I13" s="7" t="s">
-        <v>719</v>
+        <v>542</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>542</v>
-      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:12">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:12">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
     </row>
@@ -7397,7 +7295,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="use-secure-http-response-headers" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Injection_Prevention_Requirements.md#use-secure-http-response-headers" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Injection_Prevention_Requirements.md - use-secure-http-response-headers" xr:uid="{6BAF0F24-A011-D841-87B1-7C34AE90C595}"/>
@@ -7419,27 +7317,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E771B27A-0C17-BC41-8D9F-0760E4D44E38}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.35546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>526</v>
       </c>
@@ -7458,40 +7355,37 @@
       <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>709</v>
       </c>
+      <c r="I1" s="20"/>
       <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="K1" s="5" t="s">
+        <v>713</v>
+      </c>
       <c r="L1" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>710</v>
+      </c>
       <c r="I2" s="5" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="63.45">
+    <row r="3" spans="1:12" ht="63">
       <c r="A3" s="2" t="s">
         <v>629</v>
       </c>
@@ -7510,26 +7404,23 @@
       <c r="F3" t="s">
         <v>353</v>
       </c>
-      <c r="G3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="H3" t="s">
+        <v>706</v>
+      </c>
       <c r="I3" t="s">
         <v>706</v>
       </c>
-      <c r="J3" t="s">
-        <v>706</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="M3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="111">
+      <c r="L3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="110.25">
       <c r="A4" s="2" t="s">
         <v>630</v>
       </c>
@@ -7548,23 +7439,20 @@
       <c r="F4" t="s">
         <v>353</v>
       </c>
-      <c r="G4" t="s">
-        <v>158</v>
+      <c r="G4" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>529</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="63.45">
+    </row>
+    <row r="5" spans="1:12" ht="63">
       <c r="A5" s="2" t="s">
         <v>631</v>
       </c>
@@ -7580,26 +7468,23 @@
       <c r="F5" t="s">
         <v>353</v>
       </c>
-      <c r="G5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="H5" t="s">
+        <v>706</v>
+      </c>
       <c r="I5" t="s">
         <v>706</v>
       </c>
-      <c r="J5" t="s">
-        <v>706</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="63.45">
+      <c r="L5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="63">
       <c r="A6" s="2" t="s">
         <v>632</v>
       </c>
@@ -7615,23 +7500,20 @@
       <c r="F6" t="s">
         <v>353</v>
       </c>
-      <c r="G6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="H6" t="s">
+        <v>706</v>
+      </c>
       <c r="I6" t="s">
         <v>706</v>
       </c>
-      <c r="J6" t="s">
-        <v>706</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="111">
+    <row r="7" spans="1:12" ht="110.25">
       <c r="A7" s="2" t="s">
         <v>633</v>
       </c>
@@ -7650,23 +7532,20 @@
       <c r="F7" t="s">
         <v>379</v>
       </c>
-      <c r="G7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="H7" t="s">
+        <v>706</v>
+      </c>
       <c r="I7" t="s">
         <v>706</v>
       </c>
-      <c r="J7" t="s">
-        <v>706</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="95.15">
+      <c r="J7" s="9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="110.25">
       <c r="A8" s="2" t="s">
         <v>634</v>
       </c>
@@ -7682,23 +7561,20 @@
       <c r="F8" t="s">
         <v>353</v>
       </c>
-      <c r="G8" t="s">
-        <v>150</v>
+      <c r="G8" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="47.6">
+    </row>
+    <row r="9" spans="1:12" ht="47.25">
       <c r="A9" s="2" t="s">
         <v>635</v>
       </c>
@@ -7717,20 +7593,17 @@
       <c r="F9" t="s">
         <v>353</v>
       </c>
-      <c r="G9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>719</v>
+      <c r="H9" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K9" s="9" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="63.45">
+    <row r="10" spans="1:12" ht="63">
       <c r="A10" s="2" t="s">
         <v>636</v>
       </c>
@@ -7749,26 +7622,23 @@
       <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
-        <v>158</v>
+      <c r="G10" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="M10" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="95.15">
+      <c r="L10" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="94.5">
       <c r="A11" s="2" t="s">
         <v>637</v>
       </c>
@@ -7787,26 +7657,23 @@
       <c r="F11" t="s">
         <v>353</v>
       </c>
-      <c r="G11" t="s">
-        <v>150</v>
+      <c r="G11" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="M11" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="63.45">
+      <c r="L11" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" s="2" t="s">
         <v>638</v>
       </c>
@@ -7825,26 +7692,23 @@
       <c r="F12" t="s">
         <v>393</v>
       </c>
-      <c r="G12" t="s">
-        <v>150</v>
+      <c r="G12" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="M12" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="79.3">
+      <c r="L12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="78.75">
       <c r="A13" s="2" t="s">
         <v>639</v>
       </c>
@@ -7863,26 +7727,23 @@
       <c r="F13" t="s">
         <v>353</v>
       </c>
-      <c r="G13" t="s">
-        <v>150</v>
+      <c r="G13" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="K13" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M13" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="95.15">
+      <c r="L13" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="94.5">
       <c r="A14" s="2" t="s">
         <v>640</v>
       </c>
@@ -7901,26 +7762,23 @@
       <c r="F14" t="s">
         <v>353</v>
       </c>
-      <c r="G14" t="s">
-        <v>158</v>
+      <c r="G14" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="M14" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="111">
+      <c r="L14" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="94.5">
       <c r="A15" s="2" t="s">
         <v>641</v>
       </c>
@@ -7939,26 +7797,23 @@
       <c r="F15" t="s">
         <v>353</v>
       </c>
-      <c r="G15" t="s">
-        <v>150</v>
+      <c r="G15" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K15" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M15" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="79.3">
+      <c r="L15" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="78.75">
       <c r="A16" s="2" t="s">
         <v>642</v>
       </c>
@@ -7977,26 +7832,23 @@
       <c r="F16" t="s">
         <v>353</v>
       </c>
-      <c r="G16" t="s">
-        <v>158</v>
+      <c r="G16" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K16" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M16" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="63.45">
+      <c r="L16" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="63">
       <c r="A17" s="2" t="s">
         <v>643</v>
       </c>
@@ -8012,26 +7864,23 @@
       <c r="F17" t="s">
         <v>353</v>
       </c>
-      <c r="G17" t="s">
-        <v>150</v>
+      <c r="G17" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K17" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M17" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="79.3">
+      <c r="L17" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="78.75">
       <c r="A18" s="2" t="s">
         <v>644</v>
       </c>
@@ -8047,26 +7896,23 @@
       <c r="F18" t="s">
         <v>353</v>
       </c>
-      <c r="G18" t="s">
-        <v>150</v>
+      <c r="G18" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K18" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M18" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="63.45">
+      <c r="L18" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="63">
       <c r="A19" s="2" t="s">
         <v>645</v>
       </c>
@@ -8085,26 +7931,23 @@
       <c r="F19" t="s">
         <v>353</v>
       </c>
-      <c r="G19" t="s">
-        <v>150</v>
+      <c r="G19" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K19" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M19" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="79.3">
+      <c r="L19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="78.75">
       <c r="A20" s="2" t="s">
         <v>646</v>
       </c>
@@ -8123,26 +7966,23 @@
       <c r="F20" t="s">
         <v>353</v>
       </c>
-      <c r="G20" t="s">
-        <v>150</v>
+      <c r="G20" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K20" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M20" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="63.45">
+      <c r="L20" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="63">
       <c r="A21" s="2" t="s">
         <v>647</v>
       </c>
@@ -8161,26 +8001,23 @@
       <c r="F21" t="s">
         <v>353</v>
       </c>
-      <c r="G21" t="s">
-        <v>150</v>
+      <c r="G21" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K21" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M21" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="111">
+      <c r="L21" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="110.25">
       <c r="A22" s="2" t="s">
         <v>648</v>
       </c>
@@ -8199,26 +8036,23 @@
       <c r="F22" t="s">
         <v>353</v>
       </c>
-      <c r="G22" t="s">
-        <v>150</v>
+      <c r="G22" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="K22" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="M22" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="63.45">
+      <c r="L22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="63">
       <c r="A23" s="2" t="s">
         <v>649</v>
       </c>
@@ -8237,25 +8071,22 @@
       <c r="F23" t="s">
         <v>353</v>
       </c>
-      <c r="G23" t="s">
-        <v>158</v>
+      <c r="G23" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>542</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="activate-audit-logging" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Logging_Alerting_Requirements.md#activate-audit-logging" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Logging_Alerting_Requirements.md - activate-audit-logging" xr:uid="{C38C242F-C535-0842-9DFE-80E85DDE60DB}"/>
@@ -8290,25 +8121,25 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.35546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.35546875" customWidth="1"/>
-    <col min="12" max="12" width="24.2109375" customWidth="1"/>
-    <col min="13" max="13" width="46.2109375" customWidth="1"/>
+    <col min="9" max="11" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="24.25" customWidth="1"/>
+    <col min="13" max="13" width="46.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1">
@@ -8342,10 +8173,10 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1">
@@ -8354,16 +8185,16 @@
       <c r="E2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="79.3">
+    <row r="3" spans="1:13" ht="78.75">
       <c r="A3" t="s">
         <v>650</v>
       </c>
@@ -8386,7 +8217,7 @@
         <v>427</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>706</v>
@@ -8395,10 +8226,10 @@
         <v>706</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="174.45">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="173.25">
       <c r="A4" t="s">
         <v>651</v>
       </c>
@@ -8421,7 +8252,7 @@
         <v>429</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>652</v>
@@ -8430,7 +8261,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="63.45">
+    <row r="5" spans="1:13" ht="63">
       <c r="A5" t="s">
         <v>653</v>
       </c>
@@ -8453,16 +8284,16 @@
         <v>431</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="79.3">
+    <row r="6" spans="1:13" ht="78.75">
       <c r="A6" t="s">
         <v>654</v>
       </c>
@@ -8485,7 +8316,7 @@
         <v>433</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>652</v>
@@ -8494,7 +8325,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="95.15">
+    <row r="7" spans="1:13" ht="94.5">
       <c r="A7" t="s">
         <v>655</v>
       </c>
@@ -8520,7 +8351,7 @@
         <v>435</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>652</v>
@@ -8529,7 +8360,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="79.3">
+    <row r="8" spans="1:13" ht="78.75">
       <c r="A8" t="s">
         <v>657</v>
       </c>
@@ -8549,7 +8380,7 @@
         <v>178</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>652</v>
@@ -8626,26 +8457,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A5A39B-555E-3746-87F2-78F8CC4D71C5}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.35546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="17.5703125" customWidth="1"/>
+    <col min="8" max="10" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>526</v>
       </c>
@@ -8673,25 +8504,25 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="5" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="B2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="79.3">
+    <row r="3" spans="1:12" ht="78.75">
       <c r="A3" t="s">
         <v>610</v>
       </c>
@@ -8714,16 +8545,16 @@
         <v>439</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>542</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="47.6">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="47.25">
       <c r="A4" t="s">
         <v>611</v>
       </c>
@@ -8737,7 +8568,7 @@
         <v>117</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>542</v>
@@ -8746,109 +8577,162 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="63.45">
+    <row r="5" spans="1:12" ht="110.25">
       <c r="A5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="L5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="63">
+      <c r="A6" t="s">
         <v>613</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="F5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="95.15">
-      <c r="A6" t="s">
-        <v>615</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="F6" t="s">
         <v>214</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="94.5">
+      <c r="A7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
+      <c r="J7" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="47.25">
+      <c r="A8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="K8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
+      <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="10"/>
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
     </row>
@@ -8867,16 +8751,26 @@
     <row r="20" spans="2:3">
       <c r="B20" s="1"/>
       <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" location="establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" xr:uid="{21B64E1C-CEA9-8E40-AD5A-7E1114798F9E}"/>
-    <hyperlink ref="C5" r:id="rId2" location="backup-data-should-be-restorable" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Data_Integrity_Requirements.md#verify-data-on-backup-media" xr:uid="{119897ED-62E5-A447-9401-721193C83414}"/>
+    <hyperlink ref="C7" r:id="rId1" location="establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - establish-ddos-mitigation-services-with-a-third-party-ddos-mitigation-provider" xr:uid="{21B64E1C-CEA9-8E40-AD5A-7E1114798F9E}"/>
+    <hyperlink ref="C6" r:id="rId2" location="backup-data-should-be-restorable" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Data_Integrity_Requirements.md#verify-data-on-backup-media" xr:uid="{119897ED-62E5-A447-9401-721193C83414}"/>
     <hyperlink ref="C4" r:id="rId3" location="backup-and-failover-capabilities" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#backup-and-failover-capabilities" xr:uid="{31950427-81CD-BA4F-A960-10C5BFB2A51A}"/>
     <hyperlink ref="C3" r:id="rId4" location="ensure-regular-automated-backups" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/Data_Integrity_Requirements.md#ensure-regular-automated-backups" xr:uid="{3242BC59-C4FE-9B46-A3C5-779CB8522CCF}"/>
+    <hyperlink ref="C8" r:id="rId5" location="no-single-points-of-failure" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#no-single-points-of-failure" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - no-single-points-of-failure" xr:uid="{F027F9F0-E259-3B45-9503-AAC687C70A49}"/>
+    <hyperlink ref="C5" r:id="rId6" location="perform-complete-system-backups" tooltip="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md#perform-complete-system-backups" display="https://github.com/it-dept-cis/RABET-V-Pilot/blob/master/docs/source/Security_Services_Capability_Maturity_Index/System_Integrity_Requirements.md - perform-complete-system-backups" xr:uid="{9F806AA8-9F16-8046-980A-E1A9B4E2E2BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8884,6 +8778,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100140FCC42739A9245BD5D446DA351F7A0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d33ca79ed21676c7168e9aa9d4478173">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a70c3e0-8d78-4001-904e-2db7d6c1853d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="796a7cbebbe6acc7ecff6c6630e77bf1" ns2:_="">
     <xsd:import namespace="6a70c3e0-8d78-4001-904e-2db7d6c1853d"/>
@@ -9061,22 +8970,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E094DD-2F11-41F5-9852-40A0A2917592}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D593A5-5991-4213-B92F-DC6BC46C28B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6a70c3e0-8d78-4001-904e-2db7d6c1853d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336B6E1A-B215-43F1-9EA7-43AA78368A29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9092,28 +9010,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E094DD-2F11-41F5-9852-40A0A2917592}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D593A5-5991-4213-B92F-DC6BC46C28B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6a70c3e0-8d78-4001-904e-2db7d6c1853d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>